--- a/Шаблоны/Scenar10.xlsx
+++ b/Шаблоны/Scenar10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,6 @@
     <t>Проверить включенное положение СВ 110 по сигнальной лампе.</t>
   </si>
   <si>
-    <t>ОПУ_1У_Киловольтметр_Т1</t>
-  </si>
-  <si>
     <t>Проверить напряжение на трансформаторе Т1. По киловольтметру ТН-1 35 кВ проверить наличие напряжения на стороне 35 кВ Т1. Напряжение равно 35 кВ.</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   </si>
   <si>
     <t>Сценарий №10 Производство оперативных переключений по выводу в ремонт СВ 6 кВ</t>
+  </si>
+  <si>
+    <t>РУ6_яч11_Плакат_СВ6_Дверь</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45524</v>
+        <v>45554</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F132"/>
     </sheetView>
   </sheetViews>
@@ -1800,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="20" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>31</v>
@@ -2420,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>44</v>
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>44</v>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>26</v>
@@ -2474,14 +2474,14 @@
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>27</v>
@@ -2493,14 +2493,14 @@
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>44</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>31</v>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>44</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>29</v>
@@ -2542,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G35" s="27" t="s">
         <v>84</v>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>27</v>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>31</v>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>44</v>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>31</v>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>44</v>
@@ -2615,14 +2615,14 @@
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>44</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>29</v>
@@ -2643,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G40" s="27" t="s">
         <v>84</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>31</v>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>44</v>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>31</v>
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>44</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>31</v>
@@ -2706,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>44</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>29</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>84</v>
@@ -2739,14 +2739,14 @@
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>27</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>31</v>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>44</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>31</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G47" s="22" t="s">
         <v>26</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>31</v>
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>44</v>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>29</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>26</v>
@@ -2842,14 +2842,14 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>27</v>
@@ -2903,14 +2903,14 @@
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>26</v>
@@ -2922,14 +2922,14 @@
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="20" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>27</v>
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>26</v>
@@ -3032,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>27</v>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>26</v>
@@ -3074,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>44</v>
@@ -3137,7 +3137,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>27</v>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>26</v>
@@ -3179,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>44</v>

--- a/Шаблоны/Scenar10.xlsx
+++ b/Шаблоны/Scenar10.xlsx
@@ -442,22 +442,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">По амперметру проверить наличие нагрузки на СВ 6. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0А</t>
-    </r>
-  </si>
-  <si>
     <t>ОПУ_3У_Ключ_СВ6</t>
   </si>
   <si>
@@ -531,6 +515,9 @@
   </si>
   <si>
     <t>РУ6_яч11_Плакат_СВ6_Дверь</t>
+  </si>
+  <si>
+    <t>По амперметру проверить наличие нагрузки на СВ 6.</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,7 +1060,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45554</v>
+        <v>45576</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>44</v>
@@ -2718,7 +2705,7 @@
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>29</v>
@@ -2727,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>84</v>
@@ -2739,14 +2726,14 @@
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>27</v>
@@ -2758,7 +2745,7 @@
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>31</v>
@@ -2767,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>44</v>
@@ -2779,7 +2766,7 @@
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>31</v>
@@ -2788,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G47" s="22" t="s">
         <v>26</v>
@@ -2800,7 +2787,7 @@
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>31</v>
@@ -2809,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>44</v>
@@ -2821,7 +2808,7 @@
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>29</v>
@@ -2830,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>26</v>
@@ -2842,14 +2829,14 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>27</v>
@@ -2903,14 +2890,14 @@
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>26</v>
@@ -2922,14 +2909,14 @@
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>76</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>27</v>
@@ -2969,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>26</v>
@@ -3032,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>27</v>
@@ -3053,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G60" s="22" t="s">
         <v>26</v>
@@ -3074,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>44</v>
@@ -3137,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>27</v>
@@ -3158,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G65" s="22" t="s">
         <v>26</v>
@@ -3179,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>44</v>
